--- a/01_Requirements/LedgerTypes/08_CC or ODC ledger creation.xlsx
+++ b/01_Requirements/LedgerTypes/08_CC or ODC ledger creation.xlsx
@@ -130,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,16 +343,94 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -363,84 +441,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,11 +758,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
@@ -770,55 +770,55 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:10" ht="24.95" customHeight="1">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="16" t="s">
+    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
+    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D5" s="2"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="26"/>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="4:10" ht="24.95" customHeight="1">
       <c r="D7" s="2"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="4:10" ht="24.95" customHeight="1">
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
@@ -831,281 +831,284 @@
       <c r="G8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D9" s="2"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D11" s="2"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D12" s="2"/>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D13" s="2"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="4:10" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="4:10" ht="38.450000000000003" customHeight="1" thickBot="1">
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D15" s="2"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D17" s="2"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D19" s="2"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D21" s="2"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D23" s="2"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="4:10" ht="24.95" customHeight="1">
       <c r="D25" s="2"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="4:10" ht="24.95" customHeight="1">
       <c r="D26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6" t="s">
+      <c r="F26" s="32"/>
+      <c r="G26" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="34"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D27" s="2"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
+    </row>
+    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D29" s="2"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
-    </row>
-    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="4:10" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="9" t="s">
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
+    </row>
+    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
+    <row r="32" spans="4:10" ht="45.6" customHeight="1" thickBot="1">
+      <c r="D32" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="34" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="12" t="s">
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+    </row>
+    <row r="34" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
+    <row r="35" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14"/>
-    </row>
-    <row r="37" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="37" spans="4:10" ht="24.95" customHeight="1">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E30:H30"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="D37:J37"/>
     <mergeCell ref="D4:J4"/>
@@ -1122,9 +1125,6 @@
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E30:H30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/01_Requirements/LedgerTypes/08_CC or ODC ledger creation.xlsx
+++ b/01_Requirements/LedgerTypes/08_CC or ODC ledger creation.xlsx
@@ -42,9 +42,6 @@
     <t xml:space="preserve">This screen is same for all Individuals/Firms/ HUF's/ LLP / Company </t>
   </si>
   <si>
-    <t xml:space="preserve">Name of the Bank / Fin. Institution </t>
-  </si>
-  <si>
     <t xml:space="preserve">ABC &amp; Co </t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Drop Down list of TDS Rates</t>
+  </si>
+  <si>
+    <t>Loan Account Number</t>
   </si>
 </sst>
 </file>
@@ -355,6 +355,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -376,12 +391,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -432,15 +441,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
@@ -777,15 +777,15 @@
     </row>
     <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
     <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
+      <c r="D4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D5" s="2"/>
@@ -793,21 +793,21 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="4:10" ht="24.95" customHeight="1">
       <c r="D7" s="2"/>
@@ -815,27 +815,27 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="4:10" ht="24.95" customHeight="1">
       <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D9" s="2"/>
@@ -843,43 +843,43 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D11" s="2"/>
-      <c r="E11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
+      <c r="E11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D12" s="2"/>
-      <c r="E12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
+      <c r="E12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D13" s="2"/>
@@ -887,19 +887,19 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="4:10" ht="38.450000000000003" customHeight="1" thickBot="1">
       <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
+        <v>7</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D15" s="2"/>
@@ -907,19 +907,19 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
+        <v>8</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D17" s="2"/>
@@ -927,21 +927,21 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D19" s="2"/>
@@ -949,21 +949,21 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D21" s="2"/>
@@ -971,19 +971,19 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
+        <v>13</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D23" s="2"/>
@@ -991,19 +991,19 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
+        <v>14</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="4:10" ht="24.95" customHeight="1">
       <c r="D25" s="2"/>
@@ -1011,23 +1011,23 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="4:10" ht="24.95" customHeight="1">
       <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="F26" s="35"/>
+      <c r="G26" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
     </row>
     <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D27" s="2"/>
@@ -1035,21 +1035,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="29"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32"/>
     </row>
     <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D29" s="2"/>
@@ -1057,65 +1057,55 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="31"/>
+        <v>18</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="34"/>
     </row>
     <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
     <row r="32" spans="4:10" ht="45.6" customHeight="1" thickBot="1">
-      <c r="D32" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="37"/>
+      <c r="D32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="34" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
     <row r="35" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="11"/>
+      <c r="D35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
     </row>
     <row r="37" spans="4:10" ht="24.95" customHeight="1">
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E14:H14"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E20:H20"/>
@@ -1125,6 +1115,16 @@
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="D37:J37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
